--- a/excel/2/data.xlsx
+++ b/excel/2/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\forex project\Gold\excel\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Forex_Project\Gold\excel\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="537">
   <si>
     <t>Open</t>
   </si>
@@ -1632,6 +1632,9 @@
   </si>
   <si>
     <t>P_Open-Low</t>
+  </si>
+  <si>
+    <t>delete</t>
   </si>
 </sst>
 </file>
@@ -1955,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q520"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3318,9 +3321,8 @@
         <f t="shared" si="4"/>
         <v>29.470000000000027</v>
       </c>
-      <c r="M22" s="1">
-        <f t="shared" si="5"/>
-        <v>-27.11</v>
+      <c r="M22" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="6"/>
@@ -4011,9 +4013,8 @@
         <f t="shared" si="4"/>
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="M33" s="1">
-        <f t="shared" si="5"/>
-        <v>25.21</v>
+      <c r="M33" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="6"/>
@@ -5523,9 +5524,8 @@
         <f t="shared" si="4"/>
         <v>0.16999999999984539</v>
       </c>
-      <c r="M57" s="1">
-        <f t="shared" si="5"/>
-        <v>25.41</v>
+      <c r="M57" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" si="6"/>
@@ -5586,9 +5586,8 @@
         <f t="shared" si="4"/>
         <v>23.170000000000073</v>
       </c>
-      <c r="M58" s="1">
-        <f t="shared" si="5"/>
-        <v>-23.13</v>
+      <c r="M58" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N58" s="1">
         <f t="shared" si="6"/>
@@ -5775,9 +5774,8 @@
         <f t="shared" si="4"/>
         <v>29.549999999999955</v>
       </c>
-      <c r="M61" s="1">
-        <f t="shared" si="5"/>
-        <v>-29.53</v>
+      <c r="M61" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" si="6"/>
@@ -6405,9 +6403,8 @@
         <f t="shared" si="14"/>
         <v>2.3999999999998636</v>
       </c>
-      <c r="M71" s="1">
-        <f t="shared" si="15"/>
-        <v>20.23</v>
+      <c r="M71" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N71" s="1">
         <f t="shared" si="16"/>
@@ -6594,9 +6591,8 @@
         <f t="shared" si="14"/>
         <v>30.049999999999955</v>
       </c>
-      <c r="M74" s="1">
-        <f t="shared" si="15"/>
-        <v>-27.36</v>
+      <c r="M74" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N74" s="1">
         <f t="shared" si="16"/>
@@ -7161,9 +7157,8 @@
         <f t="shared" si="14"/>
         <v>5.1299999999998818</v>
       </c>
-      <c r="M83" s="1">
-        <f t="shared" si="15"/>
-        <v>21.89</v>
+      <c r="M83" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N83" s="1">
         <f t="shared" si="16"/>
@@ -7224,9 +7219,8 @@
         <f t="shared" si="14"/>
         <v>2.5899999999999181</v>
       </c>
-      <c r="M84" s="1">
-        <f t="shared" si="15"/>
-        <v>34.21</v>
+      <c r="M84" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N84" s="1">
         <f t="shared" si="16"/>
@@ -7665,9 +7659,8 @@
         <f t="shared" si="14"/>
         <v>30.380000000000109</v>
       </c>
-      <c r="M91" s="1">
-        <f t="shared" si="15"/>
-        <v>-21.77</v>
+      <c r="M91" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N91" s="1">
         <f t="shared" si="16"/>
@@ -8043,9 +8036,8 @@
         <f t="shared" si="14"/>
         <v>0.61000000000012733</v>
       </c>
-      <c r="M97" s="1">
-        <f t="shared" si="15"/>
-        <v>25.57</v>
+      <c r="M97" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N97" s="1">
         <f t="shared" si="16"/>
@@ -8484,9 +8476,8 @@
         <f t="shared" si="14"/>
         <v>6.1699999999998454</v>
       </c>
-      <c r="M104" s="1">
-        <f t="shared" si="15"/>
-        <v>36.130000000000003</v>
+      <c r="M104" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N104" s="1">
         <f t="shared" si="16"/>
@@ -8988,9 +8979,8 @@
         <f t="shared" si="14"/>
         <v>2.9600000000000364</v>
       </c>
-      <c r="M112" s="1">
-        <f t="shared" si="15"/>
-        <v>24.53</v>
+      <c r="M112" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N112" s="1">
         <f t="shared" si="16"/>
@@ -9051,9 +9041,8 @@
         <f t="shared" si="14"/>
         <v>3.7899999999999636</v>
       </c>
-      <c r="M113" s="1">
-        <f t="shared" si="15"/>
-        <v>28.46</v>
+      <c r="M113" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N113" s="1">
         <f t="shared" si="16"/>
@@ -9114,9 +9103,8 @@
         <f t="shared" si="14"/>
         <v>42.639999999999873</v>
       </c>
-      <c r="M114" s="1">
-        <f t="shared" si="15"/>
-        <v>-38.39</v>
+      <c r="M114" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N114" s="1">
         <f t="shared" si="16"/>
@@ -9492,9 +9480,8 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M120" s="1">
-        <f t="shared" si="15"/>
-        <v>46.21</v>
+      <c r="M120" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N120" s="1">
         <f t="shared" si="16"/>
@@ -9555,9 +9542,8 @@
         <f t="shared" si="14"/>
         <v>2.7799999999999727</v>
       </c>
-      <c r="M121" s="1">
-        <f t="shared" si="15"/>
-        <v>36.61</v>
+      <c r="M121" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N121" s="1">
         <f t="shared" si="16"/>
@@ -9870,9 +9856,8 @@
         <f t="shared" si="14"/>
         <v>8.0000000000154614E-2</v>
       </c>
-      <c r="M126" s="1">
-        <f t="shared" si="15"/>
-        <v>19.41</v>
+      <c r="M126" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N126" s="1">
         <f t="shared" si="16"/>
@@ -11130,9 +11115,8 @@
         <f t="shared" si="24"/>
         <v>49.920000000000073</v>
       </c>
-      <c r="M146" s="1">
-        <f t="shared" si="25"/>
-        <v>-46.91</v>
+      <c r="M146" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N146" s="1">
         <f t="shared" si="26"/>
@@ -11193,9 +11177,8 @@
         <f t="shared" si="24"/>
         <v>38.480000000000018</v>
       </c>
-      <c r="M147" s="1">
-        <f t="shared" si="25"/>
-        <v>-37.65</v>
+      <c r="M147" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N147" s="1">
         <f t="shared" si="26"/>
@@ -11823,9 +11806,8 @@
         <f t="shared" si="24"/>
         <v>2.8000000000001819</v>
       </c>
-      <c r="M157" s="1">
-        <f t="shared" si="25"/>
-        <v>27.93</v>
+      <c r="M157" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N157" s="1">
         <f t="shared" si="26"/>
@@ -12075,9 +12057,8 @@
         <f t="shared" si="24"/>
         <v>4.3399999999999181</v>
       </c>
-      <c r="M161" s="1">
-        <f t="shared" si="25"/>
-        <v>23.43</v>
+      <c r="M161" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N161" s="1">
         <f t="shared" si="26"/>
@@ -12390,9 +12371,8 @@
         <f t="shared" si="24"/>
         <v>1.0900000000001455</v>
       </c>
-      <c r="M166" s="1">
-        <f t="shared" si="25"/>
-        <v>33.119999999999997</v>
+      <c r="M166" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N166" s="1">
         <f t="shared" si="26"/>
@@ -12453,9 +12433,8 @@
         <f t="shared" si="24"/>
         <v>27.509999999999991</v>
       </c>
-      <c r="M167" s="1">
-        <f t="shared" si="25"/>
-        <v>-21.66</v>
+      <c r="M167" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N167" s="1">
         <f t="shared" si="26"/>
@@ -13083,9 +13062,8 @@
         <f t="shared" si="24"/>
         <v>28.959999999999809</v>
       </c>
-      <c r="M177" s="1">
-        <f t="shared" si="25"/>
-        <v>-21.93</v>
+      <c r="M177" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N177" s="1">
         <f t="shared" si="26"/>
@@ -13209,9 +13187,8 @@
         <f t="shared" si="24"/>
         <v>2.8199999999999363</v>
       </c>
-      <c r="M179" s="1">
-        <f t="shared" si="25"/>
-        <v>30.07</v>
+      <c r="M179" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N179" s="1">
         <f t="shared" si="26"/>
@@ -13398,9 +13375,8 @@
         <f t="shared" si="24"/>
         <v>32.379999999999882</v>
       </c>
-      <c r="M182" s="1">
-        <f t="shared" si="25"/>
-        <v>-30.56</v>
+      <c r="M182" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N182" s="1">
         <f t="shared" si="26"/>
@@ -13524,9 +13500,8 @@
         <f t="shared" si="24"/>
         <v>0.20000000000004547</v>
       </c>
-      <c r="M184" s="1">
-        <f t="shared" si="25"/>
-        <v>29.31</v>
+      <c r="M184" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N184" s="1">
         <f t="shared" si="26"/>
@@ -14028,9 +14003,8 @@
         <f t="shared" si="24"/>
         <v>0.90000000000009095</v>
       </c>
-      <c r="M192" s="1">
-        <f t="shared" si="25"/>
-        <v>34.68</v>
+      <c r="M192" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N192" s="1">
         <f t="shared" si="26"/>
@@ -15099,9 +15073,8 @@
         <f t="shared" si="34"/>
         <v>9.2200000000000273</v>
       </c>
-      <c r="M209" s="1">
-        <f t="shared" si="35"/>
-        <v>36.85</v>
+      <c r="M209" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N209" s="1">
         <f t="shared" si="36"/>
@@ -15855,9 +15828,8 @@
         <f t="shared" si="34"/>
         <v>9.0499999999999545</v>
       </c>
-      <c r="M221" s="1">
-        <f t="shared" si="35"/>
-        <v>29.45</v>
+      <c r="M221" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N221" s="1">
         <f t="shared" si="36"/>
@@ -15981,9 +15953,8 @@
         <f t="shared" si="34"/>
         <v>23.720000000000027</v>
       </c>
-      <c r="M223" s="1">
-        <f t="shared" si="35"/>
-        <v>-22.67</v>
+      <c r="M223" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N223" s="1">
         <f t="shared" si="36"/>
@@ -16170,9 +16141,8 @@
         <f t="shared" si="34"/>
         <v>25.259999999999991</v>
       </c>
-      <c r="M226" s="1">
-        <f t="shared" si="35"/>
-        <v>-21.84</v>
+      <c r="M226" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N226" s="1">
         <f t="shared" si="36"/>
@@ -16422,9 +16392,8 @@
         <f t="shared" si="34"/>
         <v>28.289999999999964</v>
       </c>
-      <c r="M230" s="1">
-        <f t="shared" si="35"/>
-        <v>-26.83</v>
+      <c r="M230" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N230" s="1">
         <f t="shared" si="36"/>
@@ -16674,9 +16643,8 @@
         <f t="shared" si="34"/>
         <v>3.9499999999998181</v>
       </c>
-      <c r="M234" s="1">
-        <f t="shared" si="35"/>
-        <v>26.8</v>
+      <c r="M234" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N234" s="1">
         <f t="shared" si="36"/>
@@ -16737,9 +16705,8 @@
         <f t="shared" si="34"/>
         <v>0.68000000000006366</v>
       </c>
-      <c r="M235" s="1">
-        <f t="shared" si="35"/>
-        <v>38.5</v>
+      <c r="M235" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N235" s="1">
         <f t="shared" si="36"/>
@@ -16926,9 +16893,8 @@
         <f t="shared" si="34"/>
         <v>12.479999999999791</v>
       </c>
-      <c r="M238" s="1">
-        <f t="shared" si="35"/>
-        <v>30.66</v>
+      <c r="M238" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N238" s="1">
         <f t="shared" si="36"/>
@@ -17052,9 +17018,8 @@
         <f t="shared" si="34"/>
         <v>21.980000000000018</v>
       </c>
-      <c r="M240" s="1">
-        <f t="shared" si="35"/>
-        <v>-21.07</v>
+      <c r="M240" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N240" s="1">
         <f t="shared" si="36"/>
@@ -17115,9 +17080,8 @@
         <f t="shared" si="34"/>
         <v>30.099999999999909</v>
       </c>
-      <c r="M241" s="1">
-        <f t="shared" si="35"/>
-        <v>-27.46</v>
+      <c r="M241" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N241" s="1">
         <f t="shared" si="36"/>
@@ -17493,9 +17457,8 @@
         <f t="shared" si="34"/>
         <v>35.549999999999955</v>
       </c>
-      <c r="M247" s="1">
-        <f t="shared" si="35"/>
-        <v>-32.96</v>
+      <c r="M247" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N247" s="1">
         <f t="shared" si="36"/>
@@ -17619,9 +17582,8 @@
         <f t="shared" si="34"/>
         <v>26.470000000000027</v>
       </c>
-      <c r="M249" s="1">
-        <f t="shared" si="35"/>
-        <v>-22.43</v>
+      <c r="M249" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N249" s="1">
         <f t="shared" si="36"/>
@@ -17871,9 +17833,8 @@
         <f t="shared" si="34"/>
         <v>10.090000000000146</v>
       </c>
-      <c r="M253" s="1">
-        <f t="shared" si="35"/>
-        <v>16.690000000000001</v>
+      <c r="M253" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N253" s="1">
         <f t="shared" si="36"/>
@@ -18375,9 +18336,8 @@
         <f t="shared" si="44"/>
         <v>23.5300000000002</v>
       </c>
-      <c r="M261" s="1">
-        <f t="shared" si="45"/>
-        <v>-20.149999999999999</v>
+      <c r="M261" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N261" s="1">
         <f t="shared" si="46"/>
@@ -18942,9 +18902,8 @@
         <f t="shared" si="44"/>
         <v>27.829999999999927</v>
       </c>
-      <c r="M270" s="1">
-        <f t="shared" si="45"/>
-        <v>-22.34</v>
+      <c r="M270" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N270" s="1">
         <f t="shared" si="46"/>
@@ -19383,9 +19342,8 @@
         <f t="shared" si="44"/>
         <v>1.9399999999998272</v>
       </c>
-      <c r="M277" s="1">
-        <f t="shared" si="45"/>
-        <v>25.63</v>
+      <c r="M277" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N277" s="1">
         <f t="shared" si="46"/>
@@ -19698,9 +19656,8 @@
         <f t="shared" si="44"/>
         <v>1.1800000000000637</v>
       </c>
-      <c r="M282" s="1">
-        <f t="shared" si="45"/>
-        <v>21.62</v>
+      <c r="M282" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N282" s="1">
         <f t="shared" si="46"/>
@@ -20013,9 +19970,8 @@
         <f t="shared" si="44"/>
         <v>15.099999999999909</v>
       </c>
-      <c r="M287" s="1">
-        <f t="shared" si="45"/>
-        <v>22.59</v>
+      <c r="M287" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N287" s="1">
         <f t="shared" si="46"/>
@@ -20328,9 +20284,8 @@
         <f t="shared" si="44"/>
         <v>36.710000000000036</v>
       </c>
-      <c r="M292" s="1">
-        <f t="shared" si="45"/>
-        <v>-25.41</v>
+      <c r="M292" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N292" s="1">
         <f t="shared" si="46"/>
@@ -20706,9 +20661,8 @@
         <f t="shared" si="44"/>
         <v>32.259999999999991</v>
       </c>
-      <c r="M298" s="1">
-        <f t="shared" si="45"/>
-        <v>-26.15</v>
+      <c r="M298" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N298" s="1">
         <f t="shared" si="46"/>
@@ -20769,9 +20723,8 @@
         <f t="shared" si="44"/>
         <v>43.329999999999927</v>
       </c>
-      <c r="M299" s="1">
-        <f t="shared" si="45"/>
-        <v>-42.68</v>
+      <c r="M299" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N299" s="1">
         <f t="shared" si="46"/>
@@ -21525,9 +21478,8 @@
         <f t="shared" si="44"/>
         <v>22.039999999999964</v>
       </c>
-      <c r="M311" s="1">
-        <f t="shared" si="45"/>
-        <v>-16.690000000000001</v>
+      <c r="M311" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N311" s="1">
         <f t="shared" si="46"/>
@@ -21588,9 +21540,8 @@
         <f t="shared" si="44"/>
         <v>16.549999999999955</v>
       </c>
-      <c r="M312" s="1">
-        <f t="shared" si="45"/>
-        <v>22.86</v>
+      <c r="M312" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N312" s="1">
         <f t="shared" si="46"/>
@@ -21651,9 +21602,8 @@
         <f t="shared" si="44"/>
         <v>0.92999999999983629</v>
       </c>
-      <c r="M313" s="1">
-        <f t="shared" si="45"/>
-        <v>25.38</v>
+      <c r="M313" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N313" s="1">
         <f t="shared" si="46"/>
@@ -21840,9 +21790,8 @@
         <f t="shared" si="44"/>
         <v>18.880000000000109</v>
       </c>
-      <c r="M316" s="1">
-        <f t="shared" si="45"/>
-        <v>23.4</v>
+      <c r="M316" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N316" s="1">
         <f t="shared" si="46"/>
@@ -22848,9 +22797,8 @@
         <f t="shared" si="54"/>
         <v>4.8499999999999091</v>
       </c>
-      <c r="M332" s="1">
-        <f t="shared" si="55"/>
-        <v>25.23</v>
+      <c r="M332" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N332" s="1">
         <f t="shared" si="56"/>
@@ -23352,9 +23300,8 @@
         <f t="shared" si="54"/>
         <v>30.730000000000018</v>
       </c>
-      <c r="M340" s="1">
-        <f t="shared" si="55"/>
-        <v>-29.09</v>
+      <c r="M340" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N340" s="1">
         <f t="shared" si="56"/>
@@ -23667,9 +23614,8 @@
         <f t="shared" si="54"/>
         <v>40.539999999999964</v>
       </c>
-      <c r="M345" s="1">
-        <f t="shared" si="55"/>
-        <v>-33.86</v>
+      <c r="M345" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N345" s="1">
         <f t="shared" si="56"/>
@@ -23856,9 +23802,8 @@
         <f t="shared" si="54"/>
         <v>22.259999999999991</v>
       </c>
-      <c r="M348" s="1">
-        <f t="shared" si="55"/>
-        <v>-19.670000000000002</v>
+      <c r="M348" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N348" s="1">
         <f t="shared" si="56"/>
@@ -23982,9 +23927,8 @@
         <f t="shared" si="54"/>
         <v>38.049999999999955</v>
       </c>
-      <c r="M350" s="1">
-        <f t="shared" si="55"/>
-        <v>-33.89</v>
+      <c r="M350" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N350" s="1">
         <f t="shared" si="56"/>
@@ -24045,9 +23989,8 @@
         <f t="shared" si="54"/>
         <v>22.599999999999909</v>
       </c>
-      <c r="M351" s="1">
-        <f t="shared" si="55"/>
-        <v>-19.87</v>
+      <c r="M351" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N351" s="1">
         <f t="shared" si="56"/>
@@ -24234,9 +24177,8 @@
         <f t="shared" si="54"/>
         <v>33.839999999999918</v>
       </c>
-      <c r="M354" s="1">
-        <f t="shared" si="55"/>
-        <v>-28.91</v>
+      <c r="M354" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N354" s="1">
         <f t="shared" si="56"/>
@@ -25242,9 +25184,8 @@
         <f t="shared" si="54"/>
         <v>38.960000000000036</v>
       </c>
-      <c r="M370" s="1">
-        <f t="shared" si="55"/>
-        <v>-34.75</v>
+      <c r="M370" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N370" s="1">
         <f t="shared" si="56"/>
@@ -25431,9 +25372,8 @@
         <f t="shared" si="54"/>
         <v>5.2599999999999909</v>
       </c>
-      <c r="M373" s="1">
-        <f t="shared" si="55"/>
-        <v>23.38</v>
+      <c r="M373" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N373" s="1">
         <f t="shared" si="56"/>
@@ -25620,9 +25560,8 @@
         <f t="shared" si="54"/>
         <v>23.860000000000127</v>
       </c>
-      <c r="M376" s="1">
-        <f t="shared" si="55"/>
-        <v>-21.81</v>
+      <c r="M376" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N376" s="1">
         <f t="shared" si="56"/>
@@ -25809,9 +25748,8 @@
         <f t="shared" si="54"/>
         <v>42.299999999999955</v>
       </c>
-      <c r="M379" s="1">
-        <f t="shared" si="55"/>
-        <v>-33.61</v>
+      <c r="M379" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N379" s="1">
         <f t="shared" si="56"/>
@@ -25872,9 +25810,8 @@
         <f t="shared" si="54"/>
         <v>36.8599999999999</v>
       </c>
-      <c r="M380" s="1">
-        <f t="shared" si="55"/>
-        <v>-35.51</v>
+      <c r="M380" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N380" s="1">
         <f t="shared" si="56"/>
@@ -26061,9 +25998,8 @@
         <f t="shared" si="54"/>
         <v>69.319999999999936</v>
       </c>
-      <c r="M383" s="1">
-        <f t="shared" si="55"/>
-        <v>-58.41</v>
+      <c r="M383" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N383" s="1">
         <f t="shared" si="56"/>
@@ -26124,9 +26060,8 @@
         <f t="shared" si="54"/>
         <v>13.799999999999955</v>
       </c>
-      <c r="M384" s="1">
-        <f t="shared" si="55"/>
-        <v>52.71</v>
+      <c r="M384" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N384" s="1">
         <f t="shared" si="56"/>
@@ -26187,9 +26122,8 @@
         <f t="shared" si="54"/>
         <v>8.3800000000001091</v>
       </c>
-      <c r="M385" s="1">
-        <f t="shared" si="55"/>
-        <v>27.37</v>
+      <c r="M385" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N385" s="1">
         <f t="shared" si="56"/>
@@ -26250,9 +26184,8 @@
         <f t="shared" si="54"/>
         <v>3.0299999999999727</v>
       </c>
-      <c r="M386" s="1">
-        <f t="shared" si="55"/>
-        <v>33.65</v>
+      <c r="M386" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N386" s="1">
         <f t="shared" si="56"/>
@@ -26439,9 +26372,8 @@
         <f t="shared" si="64"/>
         <v>6.6699999999998454</v>
       </c>
-      <c r="M389" s="1">
-        <f t="shared" si="65"/>
-        <v>36.229999999999997</v>
+      <c r="M389" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N389" s="1">
         <f t="shared" si="66"/>
@@ -26502,9 +26434,8 @@
         <f t="shared" si="64"/>
         <v>6.0000000000172804E-2</v>
       </c>
-      <c r="M390" s="1">
-        <f t="shared" si="65"/>
-        <v>20.149999999999999</v>
+      <c r="M390" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N390" s="1">
         <f t="shared" si="66"/>
@@ -26943,9 +26874,8 @@
         <f t="shared" si="64"/>
         <v>1.1900000000000546</v>
       </c>
-      <c r="M397" s="1">
-        <f t="shared" si="65"/>
-        <v>28.93</v>
+      <c r="M397" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N397" s="1">
         <f t="shared" si="66"/>
@@ -27195,9 +27125,8 @@
         <f t="shared" si="64"/>
         <v>2.7400000000000091</v>
       </c>
-      <c r="M401" s="1">
-        <f t="shared" si="65"/>
-        <v>32.369999999999997</v>
+      <c r="M401" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N401" s="1">
         <f t="shared" si="66"/>
@@ -27888,9 +27817,8 @@
         <f t="shared" si="64"/>
         <v>26.539999999999964</v>
       </c>
-      <c r="M412" s="1">
-        <f t="shared" si="65"/>
-        <v>-22.08</v>
+      <c r="M412" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N412" s="1">
         <f t="shared" si="66"/>
@@ -27951,9 +27879,8 @@
         <f t="shared" si="64"/>
         <v>31.519999999999982</v>
       </c>
-      <c r="M413" s="1">
-        <f t="shared" si="65"/>
-        <v>-29.07</v>
+      <c r="M413" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N413" s="1">
         <f t="shared" si="66"/>
@@ -28266,9 +28193,8 @@
         <f t="shared" si="64"/>
         <v>3.2300000000000182</v>
       </c>
-      <c r="M418" s="1">
-        <f t="shared" si="65"/>
-        <v>26.95</v>
+      <c r="M418" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N418" s="1">
         <f t="shared" si="66"/>
@@ -29022,9 +28948,8 @@
         <f t="shared" si="64"/>
         <v>30.210000000000036</v>
       </c>
-      <c r="M430" s="1">
-        <f t="shared" si="65"/>
-        <v>-27.58</v>
+      <c r="M430" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N430" s="1">
         <f t="shared" si="66"/>
@@ -29778,9 +29703,8 @@
         <f t="shared" si="64"/>
         <v>0.79999999999995453</v>
       </c>
-      <c r="M442" s="1">
-        <f t="shared" si="65"/>
-        <v>21.99</v>
+      <c r="M442" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N442" s="1">
         <f t="shared" si="66"/>
@@ -29904,9 +29828,8 @@
         <f t="shared" si="64"/>
         <v>19.549999999999955</v>
       </c>
-      <c r="M444" s="1">
-        <f t="shared" si="65"/>
-        <v>-16.21</v>
+      <c r="M444" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N444" s="1">
         <f t="shared" si="66"/>
@@ -30912,9 +30835,8 @@
         <f t="shared" si="74"/>
         <v>43.259999999999991</v>
       </c>
-      <c r="M460" s="1">
-        <f t="shared" si="75"/>
-        <v>-41.03</v>
+      <c r="M460" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N460" s="1">
         <f t="shared" si="76"/>
@@ -31416,9 +31338,8 @@
         <f t="shared" si="74"/>
         <v>8.7199999999997999</v>
       </c>
-      <c r="M468" s="1">
-        <f t="shared" si="75"/>
-        <v>17.34</v>
+      <c r="M468" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N468" s="1">
         <f t="shared" si="76"/>
@@ -31605,9 +31526,8 @@
         <f t="shared" si="74"/>
         <v>2.0199999999999818</v>
       </c>
-      <c r="M471" s="1">
-        <f t="shared" si="75"/>
-        <v>26.18</v>
+      <c r="M471" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N471" s="1">
         <f t="shared" si="76"/>
@@ -31668,9 +31588,8 @@
         <f t="shared" si="74"/>
         <v>1.0199999999999818</v>
       </c>
-      <c r="M472" s="1">
-        <f t="shared" si="75"/>
-        <v>21.87</v>
+      <c r="M472" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N472" s="1">
         <f t="shared" si="76"/>
@@ -31731,9 +31650,8 @@
         <f t="shared" si="74"/>
         <v>26.990000000000009</v>
       </c>
-      <c r="M473" s="1">
-        <f t="shared" si="75"/>
-        <v>-18.18</v>
+      <c r="M473" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N473" s="1">
         <f t="shared" si="76"/>
@@ -31920,9 +31838,8 @@
         <f t="shared" si="74"/>
         <v>25.5</v>
       </c>
-      <c r="M476" s="1">
-        <f t="shared" si="75"/>
-        <v>-15.79</v>
+      <c r="M476" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N476" s="1">
         <f t="shared" si="76"/>
@@ -32172,9 +32089,8 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="M480" s="1">
-        <f t="shared" si="75"/>
-        <v>15.19</v>
+      <c r="M480" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N480" s="1">
         <f t="shared" si="76"/>
@@ -32550,9 +32466,8 @@
         <f t="shared" si="74"/>
         <v>29.159999999999854</v>
       </c>
-      <c r="M486" s="1">
-        <f t="shared" si="75"/>
-        <v>-28.43</v>
+      <c r="M486" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N486" s="1">
         <f t="shared" si="76"/>
@@ -32676,9 +32591,8 @@
         <f t="shared" si="74"/>
         <v>0.41000000000008185</v>
       </c>
-      <c r="M488" s="1">
-        <f t="shared" si="75"/>
-        <v>32.659999999999997</v>
+      <c r="M488" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N488" s="1">
         <f t="shared" si="76"/>
@@ -33243,9 +33157,8 @@
         <f t="shared" si="74"/>
         <v>3.5099999999999909</v>
       </c>
-      <c r="M497" s="1">
-        <f t="shared" si="75"/>
-        <v>30.58</v>
+      <c r="M497" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N497" s="1">
         <f t="shared" si="76"/>
@@ -33369,9 +33282,8 @@
         <f t="shared" si="74"/>
         <v>21.650000000000091</v>
       </c>
-      <c r="M499" s="1">
-        <f t="shared" si="75"/>
-        <v>-16.48</v>
+      <c r="M499" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N499" s="1">
         <f t="shared" si="76"/>
@@ -33558,9 +33470,8 @@
         <f t="shared" si="74"/>
         <v>28.700000000000045</v>
       </c>
-      <c r="M502" s="1">
-        <f t="shared" si="75"/>
-        <v>-25.94</v>
+      <c r="M502" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N502" s="1">
         <f t="shared" si="76"/>
@@ -33873,9 +33784,8 @@
         <f t="shared" si="74"/>
         <v>44.139999999999873</v>
       </c>
-      <c r="M507" s="1">
-        <f t="shared" si="75"/>
-        <v>-40.61</v>
+      <c r="M507" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N507" s="1">
         <f t="shared" si="76"/>
@@ -34314,9 +34224,8 @@
         <f t="shared" si="74"/>
         <v>29.970000000000027</v>
       </c>
-      <c r="M514" s="1">
-        <f t="shared" si="75"/>
-        <v>-29.54</v>
+      <c r="M514" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N514" s="1">
         <f t="shared" si="76"/>
@@ -34440,9 +34349,8 @@
         <f t="shared" si="84"/>
         <v>0.5500000000001819</v>
       </c>
-      <c r="M516" s="1">
-        <f t="shared" si="85"/>
-        <v>17.79</v>
+      <c r="M516" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="N516" s="1">
         <f t="shared" si="86"/>
